--- a/parametros/Datos.xlsx
+++ b/parametros/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\CencosudScreeplay\parametros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6CD39E-1FA4-46C2-B869-29ECC5B66280}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9822C511-B201-4C76-BA3B-6A30D5CFF269}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E4EA05FD-AAF0-4B83-8AD6-C956455330CB}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>santiago17@email.com</t>
   </si>
   <si>
-    <t>Lavadora Ivy 18kg digital gris Haceb</t>
-  </si>
-  <si>
     <t>Ahumador Mediano Basik</t>
   </si>
   <si>
     <t>Biblioteca Wick Roma 110x30x24Cm</t>
+  </si>
+  <si>
+    <t>Llanta 185/60 R14 Kenda KR20</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
